--- a/Procedures/Franchise/InsertUsersBCADMIN.xlsx
+++ b/Procedures/Franchise/InsertUsersBCADMIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\MVC\Procedures\Franchise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\Docs\Procedures\Franchise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578F2E06-23EA-4FD2-A7DE-CAFB4F3C3E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE7DE4-0390-4B5B-90B7-05A428D3FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1134">
   <si>
     <t>@HOaTOdg%1JTnvQ0</t>
   </si>
@@ -3403,6 +3403,54 @@
   </si>
   <si>
     <t>Gildas</t>
+  </si>
+  <si>
+    <t>lmarques2</t>
+  </si>
+  <si>
+    <t>ludovic.marques@aquatiris.fr</t>
+  </si>
+  <si>
+    <t>mkeating</t>
+  </si>
+  <si>
+    <t>mavel.dekeating@aquatiris.fr</t>
+  </si>
+  <si>
+    <t>DE KEATING</t>
+  </si>
+  <si>
+    <t>Mavel</t>
+  </si>
+  <si>
+    <t>dlegrand</t>
+  </si>
+  <si>
+    <t>ycoutinho</t>
+  </si>
+  <si>
+    <t>agautier</t>
+  </si>
+  <si>
+    <t>GAUTIER</t>
+  </si>
+  <si>
+    <t>gautieralexandre@hotmail.fr</t>
+  </si>
+  <si>
+    <t>duho.paysage@orange.fr</t>
+  </si>
+  <si>
+    <t>aujardintranquille@groupe-lantana.fr</t>
+  </si>
+  <si>
+    <t>LEGRAND</t>
+  </si>
+  <si>
+    <t>COUTINHO</t>
+  </si>
+  <si>
+    <t>Yoann</t>
   </si>
 </sst>
 </file>
@@ -3952,10 +4000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B301" workbookViewId="0">
-      <selection activeCell="F311" sqref="F311"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="F314" sqref="F314:F316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14083,7 +14131,7 @@
         <v>9</v>
       </c>
       <c r="F290" t="str">
-        <f t="shared" ref="F290:F311" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($F$1,"##LOGIN##",A290),"##COURRIEL##",B290),"##NOM##",SUBSTITUTE(C290,"'","''")),"##PRENOM##",SUBSTITUTE(D290,"'","''")),"##TYPE##",E290)</f>
+        <f t="shared" ref="F290:F316" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($F$1,"##LOGIN##",A290),"##COURRIEL##",B290),"##NOM##",SUBSTITUTE(C290,"'","''")),"##PRENOM##",SUBSTITUTE(D290,"'","''")),"##TYPE##",E290)</f>
         <v>Set @login = 'alebon' ;
 Set @courriel = 'alexis.lebon@aquatiris.fr'  ;
 Set @nom = 'LEBON' ;
@@ -14766,6 +14814,181 @@
 Set @nom = 'GRAIGNIC' ;
 Set @prenom = 'Gildas' ;
 Set @profil = 'type_be' ;
+insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
+select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
+From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
+Set @user_id = (Select ID From wp_users Where user_email = @courriel limit 1) ;
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'nickname', user_nicename from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'nickname');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'first_name', @nom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'first_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'last_name', @prenom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'last_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:13:"installateurs";b:1;}' from wp_users where ID = @user_id and @profil = 'type_install' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:9:"franchiss";b:1;}' from wp_users where ID = @user_id and @profil = 'type_be' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:2:{s:6:"editor";b:1;s:15:"bbp_participant";b:1;}' from wp_users where ID = @user_id and @profil = 'type_sarl' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C312" t="s">
+        <v>882</v>
+      </c>
+      <c r="D312" t="s">
+        <v>567</v>
+      </c>
+      <c r="E312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="6"/>
+        <v>Set @login = 'lmarques2' ;
+Set @courriel = 'ludovic.marques@aquatiris.fr'  ;
+Set @nom = 'MARQUES' ;
+Set @prenom = 'Ludovic' ;
+Set @profil = 'type_be' ;
+insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
+select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
+From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
+Set @user_id = (Select ID From wp_users Where user_email = @courriel limit 1) ;
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'nickname', user_nicename from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'nickname');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'first_name', @nom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'first_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'last_name', @prenom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'last_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:13:"installateurs";b:1;}' from wp_users where ID = @user_id and @profil = 'type_install' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:9:"franchiss";b:1;}' from wp_users where ID = @user_id and @profil = 'type_be' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:2:{s:6:"editor";b:1;s:15:"bbp_participant";b:1;}' from wp_users where ID = @user_id and @profil = 'type_sarl' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="6"/>
+        <v>Set @login = 'mkeating' ;
+Set @courriel = 'mavel.dekeating@aquatiris.fr'  ;
+Set @nom = 'DE KEATING' ;
+Set @prenom = 'Mavel' ;
+Set @profil = 'type_be' ;
+insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
+select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
+From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
+Set @user_id = (Select ID From wp_users Where user_email = @courriel limit 1) ;
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'nickname', user_nicename from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'nickname');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'first_name', @nom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'first_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'last_name', @prenom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'last_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:13:"installateurs";b:1;}' from wp_users where ID = @user_id and @profil = 'type_install' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:9:"franchiss";b:1;}' from wp_users where ID = @user_id and @profil = 'type_be' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:2:{s:6:"editor";b:1;s:15:"bbp_participant";b:1;}' from wp_users where ID = @user_id and @profil = 'type_sarl' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D314" t="s">
+        <v>336</v>
+      </c>
+      <c r="E314" t="s">
+        <v>7</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="6"/>
+        <v>Set @login = 'dlegrand' ;
+Set @courriel = 'aujardintranquille@groupe-lantana.fr'  ;
+Set @nom = 'LEGRAND' ;
+Set @prenom = 'David' ;
+Set @profil = 'type_install' ;
+insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
+select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
+From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
+Set @user_id = (Select ID From wp_users Where user_email = @courriel limit 1) ;
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'nickname', user_nicename from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'nickname');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'first_name', @nom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'first_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'last_name', @prenom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'last_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:13:"installateurs";b:1;}' from wp_users where ID = @user_id and @profil = 'type_install' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:9:"franchiss";b:1;}' from wp_users where ID = @user_id and @profil = 'type_be' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:2:{s:6:"editor";b:1;s:15:"bbp_participant";b:1;}' from wp_users where ID = @user_id and @profil = 'type_sarl' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E315" t="s">
+        <v>7</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="6"/>
+        <v>Set @login = 'ycoutinho' ;
+Set @courriel = 'duho.paysage@orange.fr'  ;
+Set @nom = 'COUTINHO' ;
+Set @prenom = 'Yoann' ;
+Set @profil = 'type_install' ;
+insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
+select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
+From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
+Set @user_id = (Select ID From wp_users Where user_email = @courriel limit 1) ;
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'nickname', user_nicename from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'nickname');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'first_name', @nom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'first_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'last_name', @prenom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'last_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:13:"installateurs";b:1;}' from wp_users where ID = @user_id and @profil = 'type_install' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:9:"franchiss";b:1;}' from wp_users where ID = @user_id and @profil = 'type_be' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:2:{s:6:"editor";b:1;s:15:"bbp_participant";b:1;}' from wp_users where ID = @user_id and @profil = 'type_sarl' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D316" t="s">
+        <v>29</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="6"/>
+        <v>Set @login = 'agautier' ;
+Set @courriel = 'gautieralexandre@hotmail.fr'  ;
+Set @nom = 'GAUTIER' ;
+Set @prenom = 'Alexandre' ;
+Set @profil = 'type_install' ;
 insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
 select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
 From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
@@ -14850,6 +15073,11 @@
     <hyperlink ref="B309" r:id="rId68" xr:uid="{6EAB2D05-6FD3-4097-917B-EF46633DAB90}"/>
     <hyperlink ref="B310" r:id="rId69" xr:uid="{84399F0E-9A7A-4144-9DF0-AE7DBA1011D3}"/>
     <hyperlink ref="B311" r:id="rId70" xr:uid="{D7709B25-8671-4E02-A014-91CDF9EC1388}"/>
+    <hyperlink ref="B312" r:id="rId71" xr:uid="{5B1729A2-A186-424C-9A83-665F6E2E8A23}"/>
+    <hyperlink ref="B313" r:id="rId72" xr:uid="{492318D6-1257-43C2-A2B6-CA00A4056753}"/>
+    <hyperlink ref="B316" r:id="rId73" xr:uid="{BC191458-9241-47F5-B32A-0695C1BDA3C9}"/>
+    <hyperlink ref="B315" r:id="rId74" xr:uid="{1CB601A2-38E8-4FFB-8DE3-664BCA9BACC7}"/>
+    <hyperlink ref="B314" r:id="rId75" xr:uid="{C5A8AB17-86D0-42D7-8857-BA9153841C05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Procedures/Franchise/InsertUsersBCADMIN.xlsx
+++ b/Procedures/Franchise/InsertUsersBCADMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\Docs\Procedures\Franchise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE7DE4-0390-4B5B-90B7-05A428D3FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578B3DD-69B1-4989-9EE6-B6B7F4496750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1140">
   <si>
     <t>@HOaTOdg%1JTnvQ0</t>
   </si>
@@ -3451,6 +3451,24 @@
   </si>
   <si>
     <t>Yoann</t>
+  </si>
+  <si>
+    <t>pfechter</t>
+  </si>
+  <si>
+    <t>pascal.fechter@aquatiris.fr</t>
+  </si>
+  <si>
+    <t>FECHTER</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>friviere</t>
+  </si>
+  <si>
+    <t>frederic.riviere@aquatiris.fr</t>
   </si>
 </sst>
 </file>
@@ -4000,10 +4018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="F314" sqref="F314:F316"/>
+    <sheetView tabSelected="1" topLeftCell="B294" workbookViewId="0">
+      <selection activeCell="F321" sqref="F321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14131,7 +14149,7 @@
         <v>9</v>
       </c>
       <c r="F290" t="str">
-        <f t="shared" ref="F290:F316" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($F$1,"##LOGIN##",A290),"##COURRIEL##",B290),"##NOM##",SUBSTITUTE(C290,"'","''")),"##PRENOM##",SUBSTITUTE(D290,"'","''")),"##TYPE##",E290)</f>
+        <f t="shared" ref="F290:F318" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($F$1,"##LOGIN##",A290),"##COURRIEL##",B290),"##NOM##",SUBSTITUTE(C290,"'","''")),"##PRENOM##",SUBSTITUTE(D290,"'","''")),"##TYPE##",E290)</f>
         <v>Set @login = 'alebon' ;
 Set @courriel = 'alexis.lebon@aquatiris.fr'  ;
 Set @nom = 'LEBON' ;
@@ -14989,6 +15007,76 @@
 Set @nom = 'GAUTIER' ;
 Set @prenom = 'Alexandre' ;
 Set @profil = 'type_install' ;
+insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
+select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
+From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
+Set @user_id = (Select ID From wp_users Where user_email = @courriel limit 1) ;
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'nickname', user_nicename from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'nickname');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'first_name', @nom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'first_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'last_name', @prenom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'last_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:13:"installateurs";b:1;}' from wp_users where ID = @user_id and @profil = 'type_install' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:9:"franchiss";b:1;}' from wp_users where ID = @user_id and @profil = 'type_be' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:2:{s:6:"editor";b:1;s:15:"bbp_participant";b:1;}' from wp_users where ID = @user_id and @profil = 'type_sarl' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="6"/>
+        <v>Set @login = 'pfechter' ;
+Set @courriel = 'pascal.fechter@aquatiris.fr'  ;
+Set @nom = 'FECHTER' ;
+Set @prenom = 'Pascal' ;
+Set @profil = 'type_be' ;
+insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
+select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
+From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
+Set @user_id = (Select ID From wp_users Where user_email = @courriel limit 1) ;
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'nickname', user_nicename from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'nickname');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'first_name', @nom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'first_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'last_name', @prenom from wp_users where ID = @user_id and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'last_name');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:13:"installateurs";b:1;}' from wp_users where ID = @user_id and @profil = 'type_install' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:1:{s:9:"franchiss";b:1;}' from wp_users where ID = @user_id and @profil = 'type_be' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');
+insert into wp_usermeta(user_id, meta_key, meta_value) select @user_id, 'wp_capabilities', 'a:2:{s:6:"editor";b:1;s:15:"bbp_participant";b:1;}' from wp_users where ID = @user_id and @profil = 'type_sarl' and not exists (select 1 from wp_usermeta where user_id = @user_id and meta_key = 'wp_capabilities');</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C318" t="s">
+        <v>896</v>
+      </c>
+      <c r="D318" t="s">
+        <v>313</v>
+      </c>
+      <c r="E318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="6"/>
+        <v>Set @login = 'friviere' ;
+Set @courriel = 'frederic.riviere@aquatiris.fr'  ;
+Set @nom = 'RIVIERE' ;
+Set @prenom = 'Frédéric' ;
+Set @profil = 'type_be' ;
 insert into wp_users(user_login, user_pass, user_nicename, user_email, user_registered,display_name) 
 select @login,'',@login,@courriel,NOW(),concat(@prenom,' ',@nom)
 From wp_users Where ID = 1 and not exists (select 1 from wp_users where user_email = @courriel);
@@ -15078,6 +15166,8 @@
     <hyperlink ref="B316" r:id="rId73" xr:uid="{BC191458-9241-47F5-B32A-0695C1BDA3C9}"/>
     <hyperlink ref="B315" r:id="rId74" xr:uid="{1CB601A2-38E8-4FFB-8DE3-664BCA9BACC7}"/>
     <hyperlink ref="B314" r:id="rId75" xr:uid="{C5A8AB17-86D0-42D7-8857-BA9153841C05}"/>
+    <hyperlink ref="B317" r:id="rId76" xr:uid="{57288E5C-42E5-44CA-A318-7A7E46195078}"/>
+    <hyperlink ref="B318" r:id="rId77" xr:uid="{CF657C40-756E-4E6B-833B-8B609B5FEBD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
